--- a/output/children_surveys.xlsx
+++ b/output/children_surveys.xlsx
@@ -103,13 +103,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -195,6 +195,16 @@
     <author>OutlierDetector</author>
   </authors>
   <commentList>
+    <comment ref="Q73" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA73" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
     <comment ref="A85" authorId="0" shapeId="0">
       <text>
         <t>constant</t>
@@ -375,6 +385,66 @@
         <t>constant</t>
       </text>
     </comment>
+    <comment ref="Q95" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA95" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S118" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA118" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S119" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA119" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S120" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA120" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Q123" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA123" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Q124" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA124" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
     <comment ref="A132" authorId="0" shapeId="0">
       <text>
         <t>edge_only</t>
@@ -553,6 +623,26 @@
     <comment ref="AJ132" authorId="0" shapeId="0">
       <text>
         <t>edge_only</t>
+      </text>
+    </comment>
+    <comment ref="Q158" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA158" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S160" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA160" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
       </text>
     </comment>
     <comment ref="A168" authorId="0" shapeId="0">
@@ -1095,12 +1185,57 @@
         <t>edge_only</t>
       </text>
     </comment>
-    <comment ref="AA208" authorId="0" shapeId="0">
+    <comment ref="S184" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AB208" authorId="0" shapeId="0">
+    <comment ref="AA184" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Q200" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S200" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA200" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S204" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA204" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Q232" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA232" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Q233" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA233" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
@@ -1285,62 +1420,102 @@
         <t>edge_only</t>
       </text>
     </comment>
-    <comment ref="AA285" authorId="0" shapeId="0">
+    <comment ref="Q286" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AB285" authorId="0" shapeId="0">
+    <comment ref="AA286" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AA288" authorId="0" shapeId="0">
+    <comment ref="Q314" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AB288" authorId="0" shapeId="0">
+    <comment ref="S314" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AA292" authorId="0" shapeId="0">
+    <comment ref="AA314" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AB292" authorId="0" shapeId="0">
+    <comment ref="Q315" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AA293" authorId="0" shapeId="0">
+    <comment ref="S315" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AB293" authorId="0" shapeId="0">
+    <comment ref="AA315" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AA295" authorId="0" shapeId="0">
+    <comment ref="S316" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AB295" authorId="0" shapeId="0">
+    <comment ref="AA316" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AA333" authorId="0" shapeId="0">
+    <comment ref="S318" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AB333" authorId="0" shapeId="0">
+    <comment ref="AA318" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S324" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA324" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S329" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA329" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S332" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA332" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S334" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA334" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
@@ -1525,22 +1700,52 @@
         <t>edge_only</t>
       </text>
     </comment>
-    <comment ref="AA342" authorId="0" shapeId="0">
+    <comment ref="S344" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AB342" authorId="0" shapeId="0">
+    <comment ref="AA344" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AA343" authorId="0" shapeId="0">
+    <comment ref="S346" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AB343" authorId="0" shapeId="0">
+    <comment ref="AA346" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S347" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA347" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S367" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA367" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S394" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA394" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
@@ -1725,6 +1930,16 @@
         <t>edge_only</t>
       </text>
     </comment>
+    <comment ref="S404" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA404" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
     <comment ref="A406" authorId="0" shapeId="0">
       <text>
         <t>edge_only</t>
@@ -1905,52 +2120,217 @@
         <t>edge_only</t>
       </text>
     </comment>
-    <comment ref="AA425" authorId="0" shapeId="0">
+    <comment ref="Q408" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AB425" authorId="0" shapeId="0">
+    <comment ref="AA408" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AA495" authorId="0" shapeId="0">
+    <comment ref="S423" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AB495" authorId="0" shapeId="0">
+    <comment ref="AA423" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AA497" authorId="0" shapeId="0">
+    <comment ref="S424" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AB497" authorId="0" shapeId="0">
+    <comment ref="AA424" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AA565" authorId="0" shapeId="0">
+    <comment ref="S438" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AB565" authorId="0" shapeId="0">
+    <comment ref="AA438" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AA604" authorId="0" shapeId="0">
+    <comment ref="S443" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
     </comment>
-    <comment ref="AB604" authorId="0" shapeId="0">
+    <comment ref="AA443" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Q445" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA445" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Q449" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA449" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Q471" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA471" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S491" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA491" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S518" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA518" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Q556" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA556" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Q560" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA560" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Q562" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA562" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Q566" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA566" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Q588" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA588" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Q591" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA591" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="Q612" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S612" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA612" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S614" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA614" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S635" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA635" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S650" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA650" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="S651" authorId="0" shapeId="0">
+      <text>
+        <t>contradiction</t>
+      </text>
+    </comment>
+    <comment ref="AA651" authorId="0" shapeId="0">
       <text>
         <t>contradiction</t>
       </text>
@@ -9396,7 +9776,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q73" t="n">
+      <c r="Q73" s="6" t="n">
         <v>7</v>
       </c>
       <c r="R73" t="n">
@@ -9426,7 +9806,7 @@
       <c r="Z73" t="n">
         <v>3</v>
       </c>
-      <c r="AA73" t="n">
+      <c r="AA73" s="6" t="n">
         <v>7</v>
       </c>
       <c r="AB73" t="n">
@@ -10715,128 +11095,128 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="6" t="inlineStr">
+      <c r="A85" s="7" t="inlineStr">
         <is>
           <t>67484f957c2f821e9bbc4ada</t>
         </is>
       </c>
-      <c r="B85" s="6" t="inlineStr">
+      <c r="B85" s="7" t="inlineStr">
         <is>
           <t>#7304</t>
         </is>
       </c>
-      <c r="C85" s="7" t="n">
+      <c r="C85" s="8" t="n">
         <v>45626</v>
       </c>
-      <c r="D85" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E85" s="6" t="inlineStr">
+      <c r="D85" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E85" s="7" t="inlineStr">
         <is>
           <t>PM</t>
         </is>
       </c>
-      <c r="F85" s="8" t="n">
+      <c r="F85" s="9" t="n">
         <v>45632.771875</v>
       </c>
-      <c r="G85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K85" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L85" s="6" t="inlineStr"/>
-      <c r="M85" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N85" s="6" t="inlineStr">
+      <c r="G85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K85" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L85" s="7" t="inlineStr"/>
+      <c r="M85" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N85" s="7" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="O85" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P85" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="X85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI85" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ85" s="6" t="inlineStr">
+      <c r="O85" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P85" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI85" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ85" s="7" t="inlineStr">
         <is>
           <t>סבא</t>
         </is>
@@ -11999,7 +12379,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q95" t="n">
+      <c r="Q95" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R95" t="n">
@@ -12029,7 +12409,7 @@
       <c r="Z95" t="n">
         <v>1</v>
       </c>
-      <c r="AA95" t="n">
+      <c r="AA95" s="6" t="n">
         <v>7</v>
       </c>
       <c r="AB95" t="n">
@@ -14752,7 +15132,7 @@
       <c r="R118" t="n">
         <v>5</v>
       </c>
-      <c r="S118" t="n">
+      <c r="S118" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T118" t="n">
@@ -14767,7 +15147,7 @@
       <c r="Z118" t="n">
         <v>2</v>
       </c>
-      <c r="AA118" t="n">
+      <c r="AA118" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB118" t="n">
@@ -14870,7 +15250,7 @@
       <c r="R119" t="n">
         <v>6</v>
       </c>
-      <c r="S119" t="n">
+      <c r="S119" s="6" t="n">
         <v>6</v>
       </c>
       <c r="T119" t="n">
@@ -14894,7 +15274,7 @@
       <c r="Z119" t="n">
         <v>1</v>
       </c>
-      <c r="AA119" t="n">
+      <c r="AA119" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB119" t="n">
@@ -14997,7 +15377,7 @@
       <c r="R120" t="n">
         <v>5</v>
       </c>
-      <c r="S120" t="n">
+      <c r="S120" s="6" t="n">
         <v>6</v>
       </c>
       <c r="T120" t="n">
@@ -15012,7 +15392,7 @@
       <c r="Z120" t="n">
         <v>1</v>
       </c>
-      <c r="AA120" t="n">
+      <c r="AA120" s="6" t="n">
         <v>7</v>
       </c>
       <c r="AB120" t="n">
@@ -15359,7 +15739,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q123" t="n">
+      <c r="Q123" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R123" t="n">
@@ -15389,7 +15769,7 @@
       <c r="Z123" t="n">
         <v>1</v>
       </c>
-      <c r="AA123" t="n">
+      <c r="AA123" s="6" t="n">
         <v>6</v>
       </c>
       <c r="AB123" t="n">
@@ -15486,7 +15866,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q124" t="n">
+      <c r="Q124" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R124" t="n">
@@ -15507,7 +15887,7 @@
       <c r="Z124" t="n">
         <v>1</v>
       </c>
-      <c r="AA124" t="n">
+      <c r="AA124" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB124" t="n">
@@ -16308,122 +16688,122 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="9" t="inlineStr">
+      <c r="A132" s="10" t="inlineStr">
         <is>
           <t>676683b79e4c11f7e1e1b0ab</t>
         </is>
       </c>
-      <c r="B132" s="9" t="inlineStr">
+      <c r="B132" s="10" t="inlineStr">
         <is>
           <t>#7328</t>
         </is>
       </c>
-      <c r="C132" s="10" t="n">
+      <c r="C132" s="11" t="n">
         <v>45652</v>
       </c>
-      <c r="D132" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E132" s="9" t="inlineStr">
+      <c r="D132" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E132" s="10" t="inlineStr">
         <is>
           <t>AM</t>
         </is>
       </c>
-      <c r="F132" s="11" t="n">
+      <c r="F132" s="12" t="n">
         <v>45654.40555555555</v>
       </c>
-      <c r="G132" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H132" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K132" s="9" t="inlineStr">
+      <c r="G132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K132" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="L132" s="9" t="inlineStr"/>
-      <c r="M132" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N132" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O132" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P132" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q132" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R132" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S132" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T132" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U132" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V132" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="W132" s="9" t="inlineStr"/>
-      <c r="X132" s="9" t="inlineStr"/>
-      <c r="Y132" s="9" t="inlineStr"/>
-      <c r="Z132" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA132" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB132" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC132" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD132" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE132" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF132" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG132" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH132" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI132" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ132" s="9" t="inlineStr">
+      <c r="L132" s="10" t="inlineStr"/>
+      <c r="M132" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N132" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O132" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P132" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W132" s="10" t="inlineStr"/>
+      <c r="X132" s="10" t="inlineStr"/>
+      <c r="Y132" s="10" t="inlineStr"/>
+      <c r="Z132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA132" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH132" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ132" s="10" t="inlineStr">
         <is>
           <t>כלום</t>
         </is>
@@ -19560,7 +19940,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q158" t="n">
+      <c r="Q158" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R158" t="n">
@@ -19581,7 +19961,7 @@
       <c r="Z158" t="n">
         <v>1</v>
       </c>
-      <c r="AA158" t="n">
+      <c r="AA158" s="6" t="n">
         <v>7</v>
       </c>
       <c r="AB158" t="n">
@@ -19811,7 +20191,7 @@
       <c r="R160" t="n">
         <v>1</v>
       </c>
-      <c r="S160" t="n">
+      <c r="S160" s="6" t="n">
         <v>6</v>
       </c>
       <c r="T160" t="n">
@@ -19826,7 +20206,7 @@
       <c r="Z160" t="n">
         <v>1</v>
       </c>
-      <c r="AA160" t="n">
+      <c r="AA160" s="6" t="n">
         <v>7</v>
       </c>
       <c r="AB160" t="n">
@@ -20717,122 +21097,122 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="9" t="inlineStr">
+      <c r="A168" s="10" t="inlineStr">
         <is>
           <t>678d3c0658adab1eb937475c</t>
         </is>
       </c>
-      <c r="B168" s="9" t="inlineStr">
+      <c r="B168" s="10" t="inlineStr">
         <is>
           <t>#7342</t>
         </is>
       </c>
-      <c r="C168" s="10" t="n">
+      <c r="C168" s="11" t="n">
         <v>45678</v>
       </c>
-      <c r="D168" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="E168" s="9" t="inlineStr">
+      <c r="D168" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E168" s="10" t="inlineStr">
         <is>
           <t>AM</t>
         </is>
       </c>
-      <c r="F168" s="11" t="n">
+      <c r="F168" s="12" t="n">
         <v>45684.44513888889</v>
       </c>
-      <c r="G168" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H168" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J168" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K168" s="9" t="inlineStr">
+      <c r="G168" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H168" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K168" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="L168" s="9" t="inlineStr"/>
-      <c r="M168" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N168" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O168" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P168" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q168" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R168" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S168" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T168" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U168" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V168" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="W168" s="9" t="inlineStr"/>
-      <c r="X168" s="9" t="inlineStr"/>
-      <c r="Y168" s="9" t="inlineStr"/>
-      <c r="Z168" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA168" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB168" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC168" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD168" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE168" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF168" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG168" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH168" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI168" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ168" s="9" t="inlineStr">
+      <c r="L168" s="10" t="inlineStr"/>
+      <c r="M168" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N168" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O168" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P168" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q168" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R168" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S168" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T168" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U168" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V168" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W168" s="10" t="inlineStr"/>
+      <c r="X168" s="10" t="inlineStr"/>
+      <c r="Y168" s="10" t="inlineStr"/>
+      <c r="Z168" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA168" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB168" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC168" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD168" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE168" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF168" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG168" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH168" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI168" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ168" s="10" t="inlineStr">
         <is>
           <t>אין</t>
         </is>
@@ -21574,128 +21954,128 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="9" t="inlineStr">
+      <c r="A175" s="10" t="inlineStr">
         <is>
           <t>67978e6694c0c6f78b59371d</t>
         </is>
       </c>
-      <c r="B175" s="9" t="inlineStr">
+      <c r="B175" s="10" t="inlineStr">
         <is>
           <t>#7348</t>
         </is>
       </c>
-      <c r="C175" s="10" t="n">
+      <c r="C175" s="11" t="n">
         <v>45685</v>
       </c>
-      <c r="D175" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E175" s="9" t="inlineStr">
+      <c r="D175" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E175" s="10" t="inlineStr">
         <is>
           <t>PM</t>
         </is>
       </c>
-      <c r="F175" s="11" t="n">
+      <c r="F175" s="12" t="n">
         <v>45687.94097222222</v>
       </c>
-      <c r="G175" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H175" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J175" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K175" s="9" t="inlineStr">
+      <c r="G175" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K175" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="L175" s="9" t="inlineStr"/>
-      <c r="M175" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N175" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O175" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P175" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q175" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R175" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S175" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T175" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U175" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V175" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="W175" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X175" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y175" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z175" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA175" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB175" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC175" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD175" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE175" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF175" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG175" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH175" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI175" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ175" s="9" t="inlineStr">
+      <c r="L175" s="10" t="inlineStr"/>
+      <c r="M175" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N175" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O175" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P175" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q175" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R175" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S175" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T175" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U175" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V175" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W175" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X175" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y175" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z175" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA175" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB175" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC175" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD175" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE175" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF175" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG175" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH175" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI175" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ175" s="10" t="inlineStr">
         <is>
           <t>עייפות</t>
         </is>
@@ -21947,122 +22327,122 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="9" t="inlineStr">
+      <c r="A178" s="10" t="inlineStr">
         <is>
           <t>67978e6694c0c6f78b59371d</t>
         </is>
       </c>
-      <c r="B178" s="9" t="inlineStr">
+      <c r="B178" s="10" t="inlineStr">
         <is>
           <t>#7348</t>
         </is>
       </c>
-      <c r="C178" s="10" t="n">
+      <c r="C178" s="11" t="n">
         <v>45685</v>
       </c>
-      <c r="D178" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E178" s="9" t="inlineStr">
+      <c r="D178" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E178" s="10" t="inlineStr">
         <is>
           <t>AM</t>
         </is>
       </c>
-      <c r="F178" s="11" t="n">
+      <c r="F178" s="12" t="n">
         <v>45689.39965277778</v>
       </c>
-      <c r="G178" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H178" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K178" s="9" t="inlineStr">
+      <c r="G178" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H178" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K178" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="L178" s="9" t="inlineStr"/>
-      <c r="M178" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N178" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O178" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P178" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q178" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R178" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S178" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T178" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U178" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V178" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="W178" s="9" t="inlineStr"/>
-      <c r="X178" s="9" t="inlineStr"/>
-      <c r="Y178" s="9" t="inlineStr"/>
-      <c r="Z178" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA178" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB178" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC178" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD178" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE178" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF178" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG178" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH178" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI178" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ178" s="9" t="inlineStr">
+      <c r="L178" s="10" t="inlineStr"/>
+      <c r="M178" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N178" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O178" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P178" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q178" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R178" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S178" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T178" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U178" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V178" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W178" s="10" t="inlineStr"/>
+      <c r="X178" s="10" t="inlineStr"/>
+      <c r="Y178" s="10" t="inlineStr"/>
+      <c r="Z178" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA178" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB178" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC178" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD178" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE178" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF178" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG178" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH178" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI178" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ178" s="10" t="inlineStr">
         <is>
           <t>לא התעצבנתי</t>
         </is>
@@ -22755,7 +23135,7 @@
       <c r="R184" t="n">
         <v>2</v>
       </c>
-      <c r="S184" t="n">
+      <c r="S184" s="6" t="n">
         <v>6</v>
       </c>
       <c r="T184" t="n">
@@ -22770,7 +23150,7 @@
       <c r="Z184" t="n">
         <v>2</v>
       </c>
-      <c r="AA184" t="n">
+      <c r="AA184" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB184" t="n">
@@ -24709,13 +25089,13 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q200" t="n">
+      <c r="Q200" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R200" t="n">
         <v>5</v>
       </c>
-      <c r="S200" t="n">
+      <c r="S200" s="6" t="n">
         <v>6</v>
       </c>
       <c r="T200" t="n">
@@ -24730,7 +25110,7 @@
       <c r="Z200" t="n">
         <v>5</v>
       </c>
-      <c r="AA200" t="n">
+      <c r="AA200" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB200" t="n">
@@ -25205,7 +25585,7 @@
       <c r="R204" t="n">
         <v>5</v>
       </c>
-      <c r="S204" t="n">
+      <c r="S204" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T204" t="n">
@@ -25220,7 +25600,7 @@
       <c r="Z204" t="n">
         <v>6</v>
       </c>
-      <c r="AA204" t="n">
+      <c r="AA204" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB204" t="n">
@@ -25710,10 +26090,10 @@
       <c r="Z208" t="n">
         <v>6</v>
       </c>
-      <c r="AA208" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB208" s="12" t="n">
+      <c r="AA208" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB208" t="n">
         <v>6</v>
       </c>
       <c r="AC208" t="n">
@@ -28534,7 +28914,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q232" t="n">
+      <c r="Q232" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R232" t="n">
@@ -28555,7 +28935,7 @@
       <c r="Z232" t="n">
         <v>5</v>
       </c>
-      <c r="AA232" t="n">
+      <c r="AA232" s="6" t="n">
         <v>6</v>
       </c>
       <c r="AB232" t="n">
@@ -28652,7 +29032,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q233" t="n">
+      <c r="Q233" s="6" t="n">
         <v>6</v>
       </c>
       <c r="R233" t="n">
@@ -28682,7 +29062,7 @@
       <c r="Z233" t="n">
         <v>5</v>
       </c>
-      <c r="AA233" t="n">
+      <c r="AA233" s="6" t="n">
         <v>6</v>
       </c>
       <c r="AB233" t="n">
@@ -32338,122 +32718,122 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="9" t="inlineStr">
+      <c r="A266" s="10" t="inlineStr">
         <is>
           <t>677e99b0deb32e1664b0f8c1</t>
         </is>
       </c>
-      <c r="B266" s="9" t="inlineStr">
+      <c r="B266" s="10" t="inlineStr">
         <is>
           <t>#7314</t>
         </is>
       </c>
-      <c r="C266" s="10" t="n">
+      <c r="C266" s="11" t="n">
         <v>45669</v>
       </c>
-      <c r="D266" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="E266" s="9" t="inlineStr">
+      <c r="D266" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E266" s="10" t="inlineStr">
         <is>
           <t>AM</t>
         </is>
       </c>
-      <c r="F266" s="11" t="n">
+      <c r="F266" s="12" t="n">
         <v>45677.34513888889</v>
       </c>
-      <c r="G266" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H266" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J266" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K266" s="9" t="inlineStr">
+      <c r="G266" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H266" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K266" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="L266" s="9" t="inlineStr"/>
-      <c r="M266" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N266" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O266" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P266" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q266" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R266" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S266" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T266" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U266" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V266" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="W266" s="9" t="inlineStr"/>
-      <c r="X266" s="9" t="inlineStr"/>
-      <c r="Y266" s="9" t="inlineStr"/>
-      <c r="Z266" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA266" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB266" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC266" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD266" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE266" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF266" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG266" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH266" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI266" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ266" s="9" t="inlineStr">
+      <c r="L266" s="10" t="inlineStr"/>
+      <c r="M266" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N266" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O266" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P266" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q266" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R266" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S266" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T266" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U266" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V266" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W266" s="10" t="inlineStr"/>
+      <c r="X266" s="10" t="inlineStr"/>
+      <c r="Y266" s="10" t="inlineStr"/>
+      <c r="Z266" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA266" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB266" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC266" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD266" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE266" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF266" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG266" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH266" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI266" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ266" s="10" t="inlineStr">
         <is>
           <t>לא היה</t>
         </is>
@@ -34663,10 +35043,10 @@
       <c r="Z285" t="n">
         <v>7</v>
       </c>
-      <c r="AA285" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB285" s="12" t="n">
+      <c r="AA285" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB285" t="n">
         <v>7</v>
       </c>
       <c r="AC285" t="n">
@@ -34760,7 +35140,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q286" t="n">
+      <c r="Q286" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R286" t="n">
@@ -34781,7 +35161,7 @@
       <c r="Z286" t="n">
         <v>6</v>
       </c>
-      <c r="AA286" t="n">
+      <c r="AA286" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB286" t="n">
@@ -35026,10 +35406,10 @@
       <c r="Z288" t="n">
         <v>5</v>
       </c>
-      <c r="AA288" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB288" s="12" t="n">
+      <c r="AA288" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB288" t="n">
         <v>7</v>
       </c>
       <c r="AC288" t="n">
@@ -35521,10 +35901,10 @@
       <c r="Z292" t="n">
         <v>5</v>
       </c>
-      <c r="AA292" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB292" s="12" t="n">
+      <c r="AA292" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB292" t="n">
         <v>7</v>
       </c>
       <c r="AC292" t="n">
@@ -35648,10 +36028,10 @@
       <c r="Z293" t="n">
         <v>7</v>
       </c>
-      <c r="AA293" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB293" s="12" t="n">
+      <c r="AA293" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB293" t="n">
         <v>7</v>
       </c>
       <c r="AC293" t="n">
@@ -35893,10 +36273,10 @@
       <c r="Z295" t="n">
         <v>6</v>
       </c>
-      <c r="AA295" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB295" s="12" t="n">
+      <c r="AA295" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB295" t="n">
         <v>7</v>
       </c>
       <c r="AC295" t="n">
@@ -37411,13 +37791,13 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q314" t="n">
+      <c r="Q314" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R314" t="n">
         <v>5</v>
       </c>
-      <c r="S314" t="n">
+      <c r="S314" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T314" t="n">
@@ -37432,7 +37812,7 @@
       <c r="Z314" t="n">
         <v>5</v>
       </c>
-      <c r="AA314" t="n">
+      <c r="AA314" s="6" t="n">
         <v>6</v>
       </c>
       <c r="AB314" t="n">
@@ -37529,13 +37909,13 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q315" t="n">
+      <c r="Q315" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R315" t="n">
         <v>3</v>
       </c>
-      <c r="S315" t="n">
+      <c r="S315" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T315" t="n">
@@ -37559,7 +37939,7 @@
       <c r="Z315" t="n">
         <v>5</v>
       </c>
-      <c r="AA315" t="n">
+      <c r="AA315" s="6" t="n">
         <v>6</v>
       </c>
       <c r="AB315" t="n">
@@ -37662,7 +38042,7 @@
       <c r="R316" t="n">
         <v>3</v>
       </c>
-      <c r="S316" t="n">
+      <c r="S316" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T316" t="n">
@@ -37677,7 +38057,7 @@
       <c r="Z316" t="n">
         <v>2</v>
       </c>
-      <c r="AA316" t="n">
+      <c r="AA316" s="6" t="n">
         <v>6</v>
       </c>
       <c r="AB316" t="n">
@@ -37907,7 +38287,7 @@
       <c r="R318" t="n">
         <v>2</v>
       </c>
-      <c r="S318" t="n">
+      <c r="S318" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T318" t="n">
@@ -37922,7 +38302,7 @@
       <c r="Z318" t="n">
         <v>5</v>
       </c>
-      <c r="AA318" t="n">
+      <c r="AA318" s="6" t="n">
         <v>6</v>
       </c>
       <c r="AB318" t="n">
@@ -38538,7 +38918,7 @@
       <c r="R324" t="n">
         <v>6</v>
       </c>
-      <c r="S324" t="n">
+      <c r="S324" s="6" t="n">
         <v>6</v>
       </c>
       <c r="T324" t="n">
@@ -38553,7 +38933,7 @@
       <c r="Z324" t="n">
         <v>6</v>
       </c>
-      <c r="AA324" t="n">
+      <c r="AA324" s="6" t="n">
         <v>7</v>
       </c>
       <c r="AB324" t="n">
@@ -39146,7 +39526,7 @@
       <c r="R329" t="n">
         <v>2</v>
       </c>
-      <c r="S329" t="n">
+      <c r="S329" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T329" t="n">
@@ -39170,7 +39550,7 @@
       <c r="Z329" t="n">
         <v>1</v>
       </c>
-      <c r="AA329" t="n">
+      <c r="AA329" s="6" t="n">
         <v>7</v>
       </c>
       <c r="AB329" t="n">
@@ -39518,7 +39898,7 @@
       <c r="R332" t="n">
         <v>1</v>
       </c>
-      <c r="S332" t="n">
+      <c r="S332" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T332" t="n">
@@ -39533,7 +39913,7 @@
       <c r="Z332" t="n">
         <v>1</v>
       </c>
-      <c r="AA332" t="n">
+      <c r="AA332" s="6" t="n">
         <v>7</v>
       </c>
       <c r="AB332" t="n">
@@ -39665,10 +40045,10 @@
       <c r="Z333" t="n">
         <v>7</v>
       </c>
-      <c r="AA333" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB333" s="12" t="n">
+      <c r="AA333" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB333" t="n">
         <v>7</v>
       </c>
       <c r="AC333" t="n">
@@ -39768,7 +40148,7 @@
       <c r="R334" t="n">
         <v>1</v>
       </c>
-      <c r="S334" t="n">
+      <c r="S334" s="6" t="n">
         <v>6</v>
       </c>
       <c r="T334" t="n">
@@ -39783,7 +40163,7 @@
       <c r="Z334" t="n">
         <v>1</v>
       </c>
-      <c r="AA334" t="n">
+      <c r="AA334" s="6" t="n">
         <v>7</v>
       </c>
       <c r="AB334" t="n">
@@ -40562,132 +40942,132 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="9" t="inlineStr">
+      <c r="A341" s="10" t="inlineStr">
         <is>
           <t>679372c5a921bfa59b1b8210</t>
         </is>
       </c>
-      <c r="B341" s="9" t="inlineStr">
+      <c r="B341" s="10" t="inlineStr">
         <is>
           <t>#7368</t>
         </is>
       </c>
-      <c r="C341" s="10" t="n">
+      <c r="C341" s="11" t="n">
         <v>45690</v>
       </c>
-      <c r="D341" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E341" s="9" t="inlineStr">
+      <c r="D341" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E341" s="10" t="inlineStr">
         <is>
           <t>PM</t>
         </is>
       </c>
-      <c r="F341" s="11" t="n">
+      <c r="F341" s="12" t="n">
         <v>45691.81423611111</v>
       </c>
-      <c r="G341" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H341" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J341" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K341" s="9" t="inlineStr">
+      <c r="G341" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H341" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I341" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J341" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K341" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="L341" s="9" t="inlineStr">
+      <c r="L341" s="10" t="inlineStr">
         <is>
           <t>פשוט כעסתי בלב</t>
         </is>
       </c>
-      <c r="M341" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N341" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O341" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P341" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q341" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="R341" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S341" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T341" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U341" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V341" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="W341" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X341" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y341" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z341" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA341" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB341" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC341" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD341" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE341" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF341" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG341" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH341" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI341" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ341" s="9" t="inlineStr">
+      <c r="M341" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N341" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O341" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P341" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q341" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="R341" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S341" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T341" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U341" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V341" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W341" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X341" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y341" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z341" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA341" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB341" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC341" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD341" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE341" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF341" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG341" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH341" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI341" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ341" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">אבא שלי עצבן אותי בטירוף אין לי מקום להסביר את כל מה שקרה </t>
         </is>
@@ -40778,10 +41158,10 @@
       <c r="Z342" t="n">
         <v>7</v>
       </c>
-      <c r="AA342" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB342" s="12" t="n">
+      <c r="AA342" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB342" t="n">
         <v>7</v>
       </c>
       <c r="AC342" t="n">
@@ -40905,10 +41285,10 @@
       <c r="Z343" t="n">
         <v>7</v>
       </c>
-      <c r="AA343" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB343" s="12" t="n">
+      <c r="AA343" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB343" t="n">
         <v>7</v>
       </c>
       <c r="AC343" t="n">
@@ -41008,7 +41388,7 @@
       <c r="R344" t="n">
         <v>5</v>
       </c>
-      <c r="S344" t="n">
+      <c r="S344" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T344" t="n">
@@ -41023,7 +41403,7 @@
       <c r="Z344" t="n">
         <v>7</v>
       </c>
-      <c r="AA344" t="n">
+      <c r="AA344" s="6" t="n">
         <v>7</v>
       </c>
       <c r="AB344" t="n">
@@ -41253,7 +41633,7 @@
       <c r="R346" t="n">
         <v>7</v>
       </c>
-      <c r="S346" t="n">
+      <c r="S346" s="6" t="n">
         <v>7</v>
       </c>
       <c r="T346" t="n">
@@ -41268,7 +41648,7 @@
       <c r="Z346" t="n">
         <v>3</v>
       </c>
-      <c r="AA346" t="n">
+      <c r="AA346" s="6" t="n">
         <v>7</v>
       </c>
       <c r="AB346" t="n">
@@ -41371,7 +41751,7 @@
       <c r="R347" t="n">
         <v>1</v>
       </c>
-      <c r="S347" t="n">
+      <c r="S347" s="6" t="n">
         <v>7</v>
       </c>
       <c r="T347" t="n">
@@ -41395,7 +41775,7 @@
       <c r="Z347" t="n">
         <v>4</v>
       </c>
-      <c r="AA347" t="n">
+      <c r="AA347" s="6" t="n">
         <v>7</v>
       </c>
       <c r="AB347" t="n">
@@ -42423,7 +42803,7 @@
       <c r="R367" t="n">
         <v>3</v>
       </c>
-      <c r="S367" t="n">
+      <c r="S367" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T367" t="n">
@@ -42447,7 +42827,7 @@
       <c r="Z367" t="n">
         <v>5</v>
       </c>
-      <c r="AA367" t="n">
+      <c r="AA367" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB367" t="n">
@@ -45735,7 +46115,7 @@
       <c r="R394" t="n">
         <v>1</v>
       </c>
-      <c r="S394" t="n">
+      <c r="S394" s="6" t="n">
         <v>7</v>
       </c>
       <c r="T394" t="n">
@@ -45750,7 +46130,7 @@
       <c r="Z394" t="n">
         <v>1</v>
       </c>
-      <c r="AA394" t="n">
+      <c r="AA394" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB394" t="n">
@@ -46274,128 +46654,128 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="9" t="inlineStr">
+      <c r="A399" s="10" t="inlineStr">
         <is>
           <t>6761a67e8b60efe498aced32</t>
         </is>
       </c>
-      <c r="B399" s="9" t="inlineStr">
+      <c r="B399" s="10" t="inlineStr">
         <is>
           <t>#7336</t>
         </is>
       </c>
-      <c r="C399" s="10" t="n">
+      <c r="C399" s="11" t="n">
         <v>45644</v>
       </c>
-      <c r="D399" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E399" s="9" t="inlineStr">
+      <c r="D399" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E399" s="10" t="inlineStr">
         <is>
           <t>PM</t>
         </is>
       </c>
-      <c r="F399" s="11" t="n">
+      <c r="F399" s="12" t="n">
         <v>45646.74097222222</v>
       </c>
-      <c r="G399" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H399" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J399" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K399" s="9" t="inlineStr">
+      <c r="G399" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H399" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I399" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J399" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K399" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="L399" s="9" t="inlineStr"/>
-      <c r="M399" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N399" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O399" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P399" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q399" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R399" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S399" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T399" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U399" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V399" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="W399" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="X399" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y399" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z399" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA399" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB399" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC399" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD399" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE399" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF399" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG399" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH399" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI399" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ399" s="9" t="inlineStr">
+      <c r="L399" s="10" t="inlineStr"/>
+      <c r="M399" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N399" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O399" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P399" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q399" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R399" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S399" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T399" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U399" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V399" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W399" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="X399" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y399" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z399" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA399" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB399" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC399" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD399" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE399" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF399" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG399" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH399" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI399" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ399" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">לא התעצבנתי היום </t>
         </is>
@@ -46961,7 +47341,7 @@
       <c r="R404" t="n">
         <v>1</v>
       </c>
-      <c r="S404" t="n">
+      <c r="S404" s="6" t="n">
         <v>7</v>
       </c>
       <c r="T404" t="n">
@@ -46976,7 +47356,7 @@
       <c r="Z404" t="n">
         <v>1</v>
       </c>
-      <c r="AA404" t="n">
+      <c r="AA404" s="6" t="n">
         <v>7</v>
       </c>
       <c r="AB404" t="n">
@@ -47137,122 +47517,122 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="9" t="inlineStr">
+      <c r="A406" s="10" t="inlineStr">
         <is>
           <t>6761a67e8b60efe498aced32</t>
         </is>
       </c>
-      <c r="B406" s="9" t="inlineStr">
+      <c r="B406" s="10" t="inlineStr">
         <is>
           <t>#7336</t>
         </is>
       </c>
-      <c r="C406" s="10" t="n">
+      <c r="C406" s="11" t="n">
         <v>45644</v>
       </c>
-      <c r="D406" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="E406" s="9" t="inlineStr">
+      <c r="D406" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E406" s="10" t="inlineStr">
         <is>
           <t>AM</t>
         </is>
       </c>
-      <c r="F406" s="11" t="n">
+      <c r="F406" s="12" t="n">
         <v>45650.30381944445</v>
       </c>
-      <c r="G406" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H406" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J406" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K406" s="9" t="inlineStr">
+      <c r="G406" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H406" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I406" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J406" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K406" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="L406" s="9" t="inlineStr"/>
-      <c r="M406" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="N406" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O406" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P406" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q406" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R406" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S406" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T406" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U406" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V406" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="W406" s="9" t="inlineStr"/>
-      <c r="X406" s="9" t="inlineStr"/>
-      <c r="Y406" s="9" t="inlineStr"/>
-      <c r="Z406" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA406" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB406" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC406" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD406" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE406" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF406" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG406" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH406" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI406" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ406" s="9" t="inlineStr">
+      <c r="L406" s="10" t="inlineStr"/>
+      <c r="M406" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N406" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O406" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P406" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q406" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R406" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S406" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T406" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U406" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V406" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W406" s="10" t="inlineStr"/>
+      <c r="X406" s="10" t="inlineStr"/>
+      <c r="Y406" s="10" t="inlineStr"/>
+      <c r="Z406" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA406" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB406" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC406" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD406" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE406" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF406" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG406" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH406" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI406" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ406" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve">לא התעצבנתי </t>
         </is>
@@ -47449,7 +47829,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q408" t="n">
+      <c r="Q408" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R408" t="n">
@@ -47470,7 +47850,7 @@
       <c r="Z408" t="n">
         <v>5</v>
       </c>
-      <c r="AA408" t="n">
+      <c r="AA408" s="6" t="n">
         <v>6</v>
       </c>
       <c r="AB408" t="n">
@@ -49089,7 +49469,7 @@
       <c r="R423" t="n">
         <v>5</v>
       </c>
-      <c r="S423" t="n">
+      <c r="S423" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T423" t="n">
@@ -49113,7 +49493,7 @@
       <c r="Z423" t="n">
         <v>1</v>
       </c>
-      <c r="AA423" t="n">
+      <c r="AA423" s="6" t="n">
         <v>7</v>
       </c>
       <c r="AB423" t="n">
@@ -49216,7 +49596,7 @@
       <c r="R424" t="n">
         <v>5</v>
       </c>
-      <c r="S424" t="n">
+      <c r="S424" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T424" t="n">
@@ -49231,7 +49611,7 @@
       <c r="Z424" t="n">
         <v>1</v>
       </c>
-      <c r="AA424" t="n">
+      <c r="AA424" s="6" t="n">
         <v>7</v>
       </c>
       <c r="AB424" t="n">
@@ -49358,10 +49738,10 @@
       <c r="Z425" t="n">
         <v>2</v>
       </c>
-      <c r="AA425" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB425" s="12" t="n">
+      <c r="AA425" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB425" t="n">
         <v>6</v>
       </c>
       <c r="AC425" t="n">
@@ -50746,7 +51126,7 @@
       <c r="R438" t="n">
         <v>2</v>
       </c>
-      <c r="S438" t="n">
+      <c r="S438" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T438" t="n">
@@ -50761,7 +51141,7 @@
       <c r="Z438" t="n">
         <v>7</v>
       </c>
-      <c r="AA438" t="n">
+      <c r="AA438" s="6" t="n">
         <v>6</v>
       </c>
       <c r="AB438" t="n">
@@ -51364,7 +51744,7 @@
       <c r="R443" t="n">
         <v>2</v>
       </c>
-      <c r="S443" t="n">
+      <c r="S443" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T443" t="n">
@@ -51388,7 +51768,7 @@
       <c r="Z443" t="n">
         <v>7</v>
       </c>
-      <c r="AA443" t="n">
+      <c r="AA443" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB443" t="n">
@@ -51603,7 +51983,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q445" t="n">
+      <c r="Q445" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R445" t="n">
@@ -51633,7 +52013,7 @@
       <c r="Z445" t="n">
         <v>6</v>
       </c>
-      <c r="AA445" t="n">
+      <c r="AA445" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB445" t="n">
@@ -52093,7 +52473,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q449" t="n">
+      <c r="Q449" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R449" t="n">
@@ -52123,7 +52503,7 @@
       <c r="Z449" t="n">
         <v>6</v>
       </c>
-      <c r="AA449" t="n">
+      <c r="AA449" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB449" t="n">
@@ -54663,7 +55043,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q471" t="n">
+      <c r="Q471" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R471" t="n">
@@ -54693,7 +55073,7 @@
       <c r="Z471" t="n">
         <v>1</v>
       </c>
-      <c r="AA471" t="n">
+      <c r="AA471" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB471" t="n">
@@ -57089,7 +57469,7 @@
       <c r="R491" t="n">
         <v>4</v>
       </c>
-      <c r="S491" t="n">
+      <c r="S491" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T491" t="n">
@@ -57113,7 +57493,7 @@
       <c r="Z491" t="n">
         <v>3</v>
       </c>
-      <c r="AA491" t="n">
+      <c r="AA491" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB491" t="n">
@@ -57603,10 +57983,10 @@
       <c r="Z495" t="n">
         <v>5</v>
       </c>
-      <c r="AA495" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB495" s="12" t="n">
+      <c r="AA495" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB495" t="n">
         <v>6</v>
       </c>
       <c r="AC495" t="n">
@@ -57753,10 +58133,10 @@
       <c r="Z497" t="n">
         <v>5</v>
       </c>
-      <c r="AA497" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB497" s="12" t="n">
+      <c r="AA497" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB497" t="n">
         <v>6</v>
       </c>
       <c r="AC497" t="n">
@@ -59917,7 +60297,7 @@
       <c r="R518" t="n">
         <v>2</v>
       </c>
-      <c r="S518" t="n">
+      <c r="S518" s="6" t="n">
         <v>7</v>
       </c>
       <c r="T518" t="n">
@@ -59932,7 +60312,7 @@
       <c r="Z518" t="n">
         <v>2</v>
       </c>
-      <c r="AA518" t="n">
+      <c r="AA518" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB518" t="n">
@@ -64184,7 +64564,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q556" t="n">
+      <c r="Q556" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R556" t="n">
@@ -64205,7 +64585,7 @@
       <c r="Z556" t="n">
         <v>5</v>
       </c>
-      <c r="AA556" t="n">
+      <c r="AA556" s="6" t="n">
         <v>7</v>
       </c>
       <c r="AB556" t="n">
@@ -64570,7 +64950,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q560" t="n">
+      <c r="Q560" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R560" t="n">
@@ -64591,7 +64971,7 @@
       <c r="Z560" t="n">
         <v>5</v>
       </c>
-      <c r="AA560" t="n">
+      <c r="AA560" s="6" t="n">
         <v>6</v>
       </c>
       <c r="AB560" t="n">
@@ -64815,7 +65195,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q562" t="n">
+      <c r="Q562" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R562" t="n">
@@ -64836,7 +65216,7 @@
       <c r="Z562" t="n">
         <v>5</v>
       </c>
-      <c r="AA562" t="n">
+      <c r="AA562" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB562" t="n">
@@ -65208,10 +65588,10 @@
       <c r="Z565" t="n">
         <v>2</v>
       </c>
-      <c r="AA565" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB565" s="12" t="n">
+      <c r="AA565" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB565" t="n">
         <v>6</v>
       </c>
       <c r="AC565" t="n">
@@ -65305,7 +65685,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q566" t="n">
+      <c r="Q566" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R566" t="n">
@@ -65326,7 +65706,7 @@
       <c r="Z566" t="n">
         <v>2</v>
       </c>
-      <c r="AA566" t="n">
+      <c r="AA566" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB566" t="n">
@@ -67205,7 +67585,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q588" t="n">
+      <c r="Q588" s="6" t="n">
         <v>7</v>
       </c>
       <c r="R588" t="n">
@@ -67226,7 +67606,7 @@
       <c r="Z588" t="n">
         <v>1</v>
       </c>
-      <c r="AA588" t="n">
+      <c r="AA588" s="6" t="n">
         <v>7</v>
       </c>
       <c r="AB588" t="n">
@@ -67568,7 +67948,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q591" t="n">
+      <c r="Q591" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R591" t="n">
@@ -67598,7 +67978,7 @@
       <c r="Z591" t="n">
         <v>5</v>
       </c>
-      <c r="AA591" t="n">
+      <c r="AA591" s="6" t="n">
         <v>7</v>
       </c>
       <c r="AB591" t="n">
@@ -69186,10 +69566,10 @@
       <c r="Z604" t="n">
         <v>3</v>
       </c>
-      <c r="AA604" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB604" s="12" t="n">
+      <c r="AA604" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB604" t="n">
         <v>6</v>
       </c>
       <c r="AC604" t="n">
@@ -70145,13 +70525,13 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q612" t="n">
+      <c r="Q612" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R612" t="n">
         <v>3</v>
       </c>
-      <c r="S612" t="n">
+      <c r="S612" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T612" t="n">
@@ -70166,7 +70546,7 @@
       <c r="Z612" t="n">
         <v>3</v>
       </c>
-      <c r="AA612" t="n">
+      <c r="AA612" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB612" t="n">
@@ -70396,7 +70776,7 @@
       <c r="R614" t="n">
         <v>3</v>
       </c>
-      <c r="S614" t="n">
+      <c r="S614" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T614" t="n">
@@ -70411,7 +70791,7 @@
       <c r="Z614" t="n">
         <v>6</v>
       </c>
-      <c r="AA614" t="n">
+      <c r="AA614" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB614" t="n">
@@ -72661,7 +73041,7 @@
       <c r="R635" t="n">
         <v>7</v>
       </c>
-      <c r="S635" t="n">
+      <c r="S635" s="6" t="n">
         <v>6</v>
       </c>
       <c r="T635" t="n">
@@ -72685,7 +73065,7 @@
       <c r="Z635" t="n">
         <v>2</v>
       </c>
-      <c r="AA635" t="n">
+      <c r="AA635" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB635" t="n">
@@ -73811,7 +74191,7 @@
       <c r="R650" t="n">
         <v>5</v>
       </c>
-      <c r="S650" t="n">
+      <c r="S650" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T650" t="n">
@@ -73826,7 +74206,7 @@
       <c r="Z650" t="n">
         <v>1</v>
       </c>
-      <c r="AA650" t="n">
+      <c r="AA650" s="6" t="n">
         <v>5</v>
       </c>
       <c r="AB650" t="n">
@@ -73929,7 +74309,7 @@
       <c r="R651" t="n">
         <v>2</v>
       </c>
-      <c r="S651" t="n">
+      <c r="S651" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T651" t="n">
@@ -73953,7 +74333,7 @@
       <c r="Z651" t="n">
         <v>2</v>
       </c>
-      <c r="AA651" t="n">
+      <c r="AA651" s="6" t="n">
         <v>6</v>
       </c>
       <c r="AB651" t="n">
@@ -74581,7 +74961,7 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="6" t="inlineStr">
+      <c r="A663" s="7" t="inlineStr">
         <is>
           <t>constant</t>
         </is>
@@ -74595,14 +74975,14 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="9" t="inlineStr">
+      <c r="A665" s="10" t="inlineStr">
         <is>
           <t>edge_only</t>
         </is>
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="12" t="inlineStr">
+      <c r="A666" s="6" t="inlineStr">
         <is>
           <t>contradiction</t>
         </is>

--- a/output/children_surveys.xlsx
+++ b/output/children_surveys.xlsx
@@ -32,7 +32,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -75,6 +75,12 @@
         <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCCCFF"/>
+        <bgColor rgb="00CCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -94,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -113,6 +119,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2628,7 +2635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ668"/>
+  <dimension ref="A1:AJ669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75002,6 +75009,13 @@
         </is>
       </c>
     </row>
+    <row r="669">
+      <c r="A669" s="16" t="inlineStr">
+        <is>
+          <t>time_mismatch</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
